--- a/Template_input_plgsat.xlsx
+++ b/Template_input_plgsat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hzbo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed760104dc4d70dd/Coding/Python/Streamlit_Meter/Streamlit_Meter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD87526-319E-C94B-9681-B5DA58380DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6FD87526-319E-C94B-9681-B5DA58380DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C88D973-06C7-494A-81EC-16644121CC6B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17600" xr2:uid="{13060412-6620-D740-8B8C-6C6DD2E1A90F}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="29920" windowHeight="17600" xr2:uid="{13060412-6620-D740-8B8C-6C6DD2E1A90F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,203 +47,35 @@
     <t>CaO</t>
   </si>
   <si>
-    <r>
-      <t>SiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Component 1: Major Elemental Composition (wt.%)</t>
   </si>
   <si>
-    <r>
-      <t>Al</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
+    <t>SiO2</t>
   </si>
   <si>
-    <r>
-      <t>Fe</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
+    <t>TiO2</t>
   </si>
   <si>
-    <r>
-      <t>Na</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
+    <t>Al2O3</t>
   </si>
   <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
+    <t>Fe2O3T</t>
   </si>
   <si>
-    <r>
-      <t>TiO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <t>Na2O</t>
   </si>
   <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
+    <t>K2O</t>
   </si>
   <si>
-    <t>Component 1: Major Elemental Composition (wt.%)</t>
+    <t>P2O5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,13 +84,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -332,7 +157,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,7 +497,7 @@
   <dimension ref="A1:J644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -698,34 +523,34 @@
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
